--- a/instance/zyjk/ERP/iReportField/i_erp_reportField_case - 副本 (2).xlsx
+++ b/instance/zyjk/ERP/iReportField/i_erp_reportField_case - 副本 (2).xlsx
@@ -15,14 +15,15 @@
     <sheet name="default" sheetId="1" r:id="rId1"/>
     <sheet name="case" sheetId="2" r:id="rId2"/>
     <sheet name="拜访分析报表" sheetId="3" r:id="rId3"/>
-    <sheet name="协防分析报表" sheetId="5" r:id="rId4"/>
+    <sheet name="协防分析" sheetId="4" r:id="rId4"/>
+    <sheet name="temp" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="412">
   <si>
     <t>tags</t>
   </si>
@@ -984,7 +985,7 @@
     <t>2022-06-30</t>
   </si>
   <si>
-    <t>协防分析报表</t>
+    <t>协防分析</t>
   </si>
   <si>
     <t>执行</t>
@@ -1008,9 +1009,6 @@
     <t xml:space="preserve">SELECT count(1) 计划拜访人次 from t_visit WHERE user_id=%s  and valid_status=1 and created_at&gt;='%s' and  created_at&lt;='%s' </t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>实际拜访人次</t>
   </si>
   <si>
@@ -1020,6 +1018,9 @@
     <t xml:space="preserve">SELECT count(1) 实际拜访人次 from t_visit WHERE user_id=%s and state=3 and valid_status=1 and created_at&gt;='%s' and  created_at&lt;='%s' </t>
   </si>
   <si>
+    <t>实际拜访率</t>
+  </si>
+  <si>
     <t>实际拜访人数</t>
   </si>
   <si>
@@ -1251,8 +1252,13 @@
     <t xml:space="preserve">SELECT IFNULL(concat(FORMAT(count(DISTINCT(case when v.meeting_after_mark=1 and t.synergy_status=2 then v.customer_id end)) / count(DISTINCT(case when v.meeting_after_mark=1 then v.customer_id end ))*100,2),'%'),'0.00%') '会后跟进协访完成率' from t_synergy_plan t inner join t_visit v on t.visit_id = v.id left join t_meeting_info m on v.meeting_id =m.id where t.valid_status=1 and t.user_id=%s and t.created_at&gt;='%s' and  t.created_at&lt;='%s' </t>
   </si>
   <si>
-    <t>拜访分析报表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>代表</t>
+  </si>
+  <si>
+    <t>actualVisitRate</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1428,80 +1434,15 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1521,7 +1462,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1811,7 +1752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -1899,7 +1840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>27</v>
       </c>
@@ -1941,7 +1882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>27</v>
       </c>
@@ -1962,7 +1903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
@@ -1983,7 +1924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +1945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
@@ -2024,7 +1965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>27</v>
       </c>
@@ -2045,7 +1986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
@@ -2068,7 +2009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -2089,7 +2030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>27</v>
       </c>
@@ -2154,7 +2095,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>27</v>
       </c>
@@ -2177,7 +2118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
@@ -2221,7 +2162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>72</v>
       </c>
@@ -2242,7 +2183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
@@ -2265,7 +2206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>72</v>
       </c>
@@ -2286,7 +2227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
@@ -2309,7 +2250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>72</v>
       </c>
@@ -2330,7 +2271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>87</v>
       </c>
@@ -2351,7 +2292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>87</v>
       </c>
@@ -2372,7 +2313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>87</v>
       </c>
@@ -2395,7 +2336,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>87</v>
       </c>
@@ -2418,7 +2359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>87</v>
       </c>
@@ -2439,7 +2380,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="184.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>87</v>
       </c>
@@ -2460,7 +2401,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>87</v>
       </c>
@@ -2481,7 +2422,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>87</v>
       </c>
@@ -2501,7 +2442,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="184.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>87</v>
       </c>
@@ -2522,7 +2463,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>87</v>
       </c>
@@ -2543,7 +2484,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>87</v>
       </c>
@@ -2563,7 +2504,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>87</v>
       </c>
@@ -2583,7 +2524,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>87</v>
       </c>
@@ -2604,7 +2545,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>87</v>
       </c>
@@ -2625,7 +2566,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>87</v>
       </c>
@@ -2648,7 +2589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>87</v>
       </c>
@@ -2671,7 +2612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>87</v>
       </c>
@@ -2692,7 +2633,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>136</v>
       </c>
@@ -2755,7 +2696,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>136</v>
       </c>
@@ -2778,7 +2719,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>136</v>
       </c>
@@ -2820,7 +2761,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>155</v>
       </c>
@@ -2841,7 +2782,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>155</v>
       </c>
@@ -2862,7 +2803,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>155</v>
       </c>
@@ -2883,7 +2824,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>155</v>
       </c>
@@ -2906,7 +2847,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>155</v>
       </c>
@@ -2941,7 +2882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>173</v>
       </c>
@@ -2962,7 +2903,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>173</v>
       </c>
@@ -2983,7 +2924,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>173</v>
       </c>
@@ -3006,7 +2947,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>173</v>
       </c>
@@ -3027,7 +2968,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>173</v>
       </c>
@@ -3048,7 +2989,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>188</v>
       </c>
@@ -3068,7 +3009,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>188</v>
       </c>
@@ -3088,7 +3029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>188</v>
       </c>
@@ -3109,7 +3050,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="118.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>188</v>
       </c>
@@ -3129,7 +3070,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="118.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>188</v>
       </c>
@@ -3149,7 +3090,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>188</v>
       </c>
@@ -3170,7 +3111,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>188</v>
       </c>
@@ -3191,7 +3132,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>208</v>
       </c>
@@ -3212,7 +3153,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>208</v>
       </c>
@@ -3233,7 +3174,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>208</v>
       </c>
@@ -3254,7 +3195,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>218</v>
       </c>
@@ -3291,7 +3232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>226</v>
       </c>
@@ -3311,7 +3252,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>226</v>
       </c>
@@ -3357,7 +3298,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>226</v>
       </c>
@@ -3377,7 +3318,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>226</v>
       </c>
@@ -3397,7 +3338,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>245</v>
       </c>
@@ -3431,7 +3372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>245</v>
       </c>
@@ -3454,7 +3395,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>245</v>
       </c>
@@ -3471,7 +3412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>245</v>
       </c>
@@ -3488,7 +3429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>258</v>
       </c>
@@ -3509,7 +3450,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>258</v>
       </c>
@@ -3530,7 +3471,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>258</v>
       </c>
@@ -3551,7 +3492,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>258</v>
       </c>
@@ -3572,7 +3513,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>258</v>
       </c>
@@ -3593,7 +3534,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>258</v>
       </c>
@@ -3614,7 +3555,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>258</v>
       </c>
@@ -3634,7 +3575,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>258</v>
       </c>
@@ -3654,7 +3595,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>258</v>
       </c>
@@ -3689,7 +3630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>258</v>
       </c>
@@ -3712,7 +3653,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>258</v>
       </c>
@@ -3732,7 +3673,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>258</v>
       </c>
@@ -3774,7 +3715,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>258</v>
       </c>
@@ -3795,7 +3736,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>303</v>
       </c>
@@ -3809,7 +3750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>303</v>
       </c>
@@ -3829,7 +3770,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>303</v>
       </c>
@@ -3866,7 +3807,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -3875,8 +3816,8 @@
     <col min="2" max="2" width="26.77734375" style="13" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="13" customWidth="1"/>
-    <col min="5" max="15" width="8.88671875" style="13" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="13"/>
+    <col min="5" max="17" width="8.88671875" style="13" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,7 +3836,7 @@
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>409</v>
+        <v>297</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>318</v>
@@ -3928,11 +3869,11 @@
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -3941,8 +3882,8 @@
     <col min="2" max="2" width="24.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="130.44140625" style="4" customWidth="1"/>
-    <col min="5" max="489" width="8.77734375" style="5" customWidth="1"/>
-    <col min="490" max="16384" width="8.77734375" style="5"/>
+    <col min="5" max="491" width="8.77734375" style="5" customWidth="1"/>
+    <col min="492" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3963,7 +3904,7 @@
       <c r="B2" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>326</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -3971,151 +3912,157 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="9" spans="1:4" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="1:4" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="50.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:4" ht="50.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7" t="s">
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>363</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39:B49 B50:C1048576 A2:A1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B40:B50 B51:C1048576 A2:A1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B16:B38 C16:C49"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B17:B39 C17:C50"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -4131,7 +4078,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -4140,8 +4087,8 @@
     <col min="2" max="2" width="24.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="130.44140625" style="4" customWidth="1"/>
-    <col min="5" max="489" width="8.77734375" style="5" customWidth="1"/>
-    <col min="490" max="16384" width="8.77734375" style="5"/>
+    <col min="5" max="491" width="8.77734375" style="5" customWidth="1"/>
+    <col min="492" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4333,4 +4280,26 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>